--- a/Table/J 技能配置表.xlsx
+++ b/Table/J 技能配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\trunk\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E672CE7-CF3C-40F2-B6B0-84044BBB751B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3206D-9F6E-4E54-96B7-30C3126FC625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CC9FBFC1-44EB-49B8-BF2A-8F6C2A48FD24}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CC9FBFC1-44EB-49B8-BF2A-8F6C2A48FD24}">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,46 @@
   </si>
   <si>
     <t>普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillGroupTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effTyep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,26 +139,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -150,18 +197,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,64 +517,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="4" customWidth="1"/>
+    <col min="2" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="16.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="3">
         <v>110</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H3" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
